--- a/data/Somateria_abundance.xlsx
+++ b/data/Somateria_abundance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -137,12 +137,6 @@
   </si>
   <si>
     <t>27/06/16</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Median</t>
   </si>
 </sst>
 </file>
@@ -150,11 +144,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -170,17 +164,8 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,6 +173,36 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,26 +216,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,14 +247,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,6 +269,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -270,18 +285,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -292,27 +307,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -323,187 +317,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,16 +512,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,52 +565,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,9 +600,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,7 +613,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,139 +622,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -775,7 +769,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1099,8 +1093,8 @@
   <sheetPr/>
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2385,61 +2379,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
-      <c r="A30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="4">
-        <f ca="1">MEDIAN(C2:C30)</f>
-        <v>3</v>
-      </c>
-      <c r="D30" s="4">
-        <f ca="1" t="shared" ref="D30:N30" si="0">MEDIAN(D2:D30)</f>
-        <v>7</v>
-      </c>
-      <c r="E30" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F30" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="H30" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="I30" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="J30" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L30" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="N30" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>1</v>
-      </c>
+    <row r="30" spans="3:14">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
